--- a/PRODUTOS/Bazar/Bazar - Pet shop.xlsx
+++ b/PRODUTOS/Bazar/Bazar - Pet shop.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Racao Pedigree 100g Carne/molho Raças Pequenas</t>
+          <t>Elimin. De Odores Sanol Dog 2l Herbal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe4b3e46-ca11-4e66-9b39-1f8ce257b24d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a87ffad-e9be-45d5-95ab-d858b50228dc.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896183301040</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Raçao Whiskas Adulto Sch 85gr Fgo</t>
+          <t>Shampoo Sanol Antipulgas 500ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 24,98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a720dfdb-d856-494e-b8ec-9c546c94670b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e231c8bd-9c1d-420a-8cb5-9cf6664ed429.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896183300852</t>
         </is>
       </c>
     </row>
@@ -515,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Racao Pedigree 100g Frango Ao Molho Adulto</t>
+          <t>Racao Whiskas 85g Salmao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e50d170-90a9-4a03-9e53-2ba1b8599399.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e03f40d-732b-4b58-86ab-d662a4cb7735.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896029046296</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Areia Higienica Pipicat Classic 4kg</t>
+          <t>Racao Whiskas 85g Atum</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3c031eb-8620-491c-9257-a6bbf7af5d44.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/942cf602-2560-4689-ba49-f9c7d9ed2a95.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896029046623</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ração Pedigree Cães Adultos Carne Sachê 100g</t>
+          <t>Racao P/caes Pedigree Biscrok Mini 500g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b19c4479-055f-46bd-947c-00eacf8d98a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a69203ae-1787-49f3-bc13-984095fe1221.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896029043387</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Racao Whiskas 85g Atum</t>
+          <t>Biscrok Pedigree 300g Filhote</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/942cf602-2560-4689-ba49-f9c7d9ed2a95.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c9d5752-3e8e-4c6e-b8ce-387e5e6c0cec.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896029041949</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Racao Whiskas Sch 85g Carne</t>
+          <t>Quirela De Milho Wally 500g</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21926c5c-86d0-4783-a3dc-932fb2a0ed5e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9fb57cb-2f08-464c-a22c-a1fb25a3d7fb.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896237500382</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Racao Whiskas 85g Salmao</t>
+          <t>Racao Whiskas 500g Carne</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e03f40d-732b-4b58-86ab-d662a4cb7735.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f43b4bee-8b98-4416-87c4-13e61aa47a9a.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896029046623</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Racao Pedigree 100g Cordeiro</t>
+          <t>Racao Whiskas 500g Peixe Delicrocs</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6428589d-2d21-4571-bbfe-0f1928b884b1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb6a4fb7-878b-425d-aae4-c2b5f352df64.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896029046555</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Racao Whiskas 85g Cast /peixe</t>
+          <t>Racao Whiskas 290g Peixe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39071efc-fa11-4255-afee-5035f0a54aee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/264bc61e-2fb5-4903-a466-1f268f6494c3.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896029092392</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ração Umida Pedigree Sache Carne Ao Molho Adultos Senior 7+ Anos 100g</t>
+          <t>Elimin. De Odores Sanol Dog 2l</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24a02aa7-6308-46dd-b32b-852b0f243dfd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1bc9f3f5-b446-4691-bb17-131567bfd4a4.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896183300630</t>
         </is>
       </c>
     </row>
@@ -758,7 +818,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Racao Pedigree 100g Carne Filhote</t>
+          <t>Racao Whiskas 85g Pollo Frango Jr</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -768,7 +828,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6dfaa8e-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bb9c1a4-08a3-4f01-81ac-e353cd25c042.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896029047279</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Alim P/ Gatos Friskies 85g Carne Ao Molho</t>
+          <t>Racao Pedigree 280g Carne Pate</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 3,59</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f47e2b19-3a5b-4a7f-95f5-08f7ea43c6dd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da89dec3-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896029079508</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alim P/ Gato Friskies 85g Salmão Ao Molho</t>
+          <t>Racao Pedigree 100g Carne/molho Raças Pequenas</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 3,59</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5ea7e69-a51a-4c0a-a5bc-d9ea65b30bb5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe4b3e46-ca11-4e66-9b39-1f8ce257b24d.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896029018958</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Raçao P/ Gato Adultos Kitekat Sache 70g Carne</t>
+          <t>Racao Pedigree 100g Frango Ao Molho Adulto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0324044-e9a7-4c1e-af1b-74d2e2abf4a0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e50d170-90a9-4a03-9e53-2ba1b8599399.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896029019009</t>
         </is>
       </c>
     </row>
@@ -866,7 +946,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Racao Whiskas 85g Carne Molho Salsa</t>
+          <t>Racao Pedigree 100g Fgo Ao Molho Jr</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -876,7 +956,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6494849a-48ae-4888-af9b-cc1f0c62f130.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b97ea630-7833-42a3-a22b-4269c6e6ad56.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896029040591</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Racao Pedigree 100g Fgo Ao Molho Jr</t>
+          <t>Areia Higienica Pipicat Classic 4kg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b97ea630-7833-42a3-a22b-4269c6e6ad56.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3c031eb-8620-491c-9257-a6bbf7af5d44.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896273800033</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Racao Para Caes Adulto Viking 7kg</t>
+          <t>Racao Whiskas 85g Jelly Carne 7+</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 44,99</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fd8336c-234b-4b37-9f14-201c44343361.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60e42b5a-e87b-45b1-bff3-4ac7eafdc506.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896029046616</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Raçao Whiskas Adulto Sch 85gr Cordeiro</t>
+          <t>Racao Whiskas 500g Gatos Castrados</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d5a9ab3-30d7-4a6c-93ff-40e6e31f2e4c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d47c00d5-2b17-4d66-90c1-23c5aad09910.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896029086995</t>
         </is>
       </c>
     </row>
@@ -974,7 +1074,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Racao Whiskas 85g Jelly Carne 7+</t>
+          <t>Racao Whiskas 85g Jelly Peixe</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -984,7 +1084,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60e42b5a-e87b-45b1-bff3-4ac7eafdc506.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c60ca4ae-cf80-4a03-8807-82489134cf91.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896029046593</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Alimento Para Cães Adulto Dog Chow 100g Carne</t>
+          <t>Racao Pedigree 100g Cordeiro</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/febbe535-348f-41a2-b42c-7d5256334ada.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6428589d-2d21-4571-bbfe-0f1928b884b1.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896029022276</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Racao Whiskas 85g Pollo Frango Jr</t>
+          <t>Racao Pedigree 110g Dentastix R.peq</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 3,79</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bb9c1a4-08a3-4f01-81ac-e353cd25c042.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd5a9f80-1e39-4635-8916-38d9574a1477.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896029052334</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bifinho P/ Caes Doogs 65g Churrasco</t>
+          <t>Racao Pedigree 180g Dentastix R.med</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f50ed4b6-d192-4eff-9eda-72f8b1465a89.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cea722a4-99d9-405c-986a-f420e216285a.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896029052358</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1202,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Racao Whiskas 85g Jelly Peixe</t>
+          <t>Ração Pedigree Cães Adultos Carne Sachê 100g</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1092,7 +1212,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c60ca4ae-cf80-4a03-8807-82489134cf91.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b19c4479-055f-46bd-947c-00eacf8d98a7.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896029018958</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bifinho P/ Caes Doogs 65g Carne/leite</t>
+          <t>Ração Umida Pedigree Sache Carne Ao Molho Adultos Senior 7+ Anos 100g</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eeff9e5e-07ac-4a48-9de8-4fd2afbe392c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24a02aa7-6308-46dd-b32b-852b0f243dfd.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896029018958</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Alimento Para Cães Ad Dog Chow 100g Cordeiro</t>
+          <t>Racao Pedigree 100g Carne Filhote</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdd59a56-60a4-475d-89f7-e3626c9b1b43.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6dfaa8e-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896029015001</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Racao P/ Gatos Adultos Tkitekat Sache 70g Frango</t>
+          <t>Racao Pedigree 500g Biscrok Ad</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5357ee92-2c36-458b-8429-b8ca8cdddb6e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebb54c2b-87a0-4086-a864-5644f3cfcd29.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896029043387</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Raçao P/ Gato Adultos Kitekat Sache 70g Peixe</t>
+          <t>Raçao Whiskas Adulto Sch 85gr Fgo</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f9a1493-f84e-4eea-8048-b4b606ecd205.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a720dfdb-d856-494e-b8ec-9c546c94670b.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896029046197</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Areia Higienica Sanit Edukat Alfapet 4kg</t>
+          <t>Raçao Whiskas Adulto Sch 85gr Cordeiro</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9445324-ac2f-43a6-8ed3-6b6059e70869.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d5a9ab3-30d7-4a6c-93ff-40e6e31f2e4c.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896029046197</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bifinho P/ Caes Doogs 65g Carne/vegetais</t>
+          <t>Racao Whiskas Sch 85g Carne</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7176471d-5316-438d-adc1-00941c94ac5f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21926c5c-86d0-4783-a3dc-932fb2a0ed5e.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896029047101</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1426,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Racao Whiskas Sch 85g Filhote Carne</t>
+          <t>Racao Whiskas 85g Carne Molho Salsa</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1281,7 +1436,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efe167c8-063c-40f5-be57-3b4ca21112b4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6494849a-48ae-4888-af9b-cc1f0c62f130.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896029046623</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Alimento Para Cães Ad Pequeno Dog Chow 100g Frango</t>
+          <t>Racao Whiskas 85g Cast /peixe</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e77c931b-3658-4625-bfe4-4cb2f6ac74a6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39071efc-fa11-4255-afee-5035f0a54aee.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896029046555</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Elimin. De Odores Sanol Dog 2l Herbal</t>
+          <t>Racao Whiskas Sch 85g Filhote Carne</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 3,79</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a87ffad-e9be-45d5-95ab-d858b50228dc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efe167c8-063c-40f5-be57-3b4ca21112b4.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896029047101</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Alimento Para Cães Filho Dog Chow 100g Carne</t>
+          <t>Ração Qualidy Premium Dog Filhote 900gr</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4f4abf6-7179-42b0-a380-e417d8c2dc8d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6d53295-c193-4465-b603-8c2798bfd367.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7898363313263</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Alimento Para Cães Pequeno Dog Chow 100g Carne</t>
+          <t>Ração Qualidy Premium Cat Ad Carne 500g</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 16,98</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e762d6df-1834-481d-800f-b7b195054a49.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71f9d1be-3371-48ef-aafa-62e17dbe949c.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7898363313225</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Biscrok Pedigree 300g Filhote</t>
+          <t>Ração Qualidy Cat Filh Carne E Fgo 500g</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 16,98</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c9d5752-3e8e-4c6e-b8ce-387e5e6c0cec.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/753f05a7-5f14-49ec-a997-7b3f6d82cdfc.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7898363313249</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Racao P/caes Pedigree Biscrok Mini 500g</t>
+          <t>Alpiste P/pássaro Wally 500g</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a69203ae-1787-49f3-bc13-984095fe1221.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02ac5f39-876e-4d0f-a8f5-bba4b615a606.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896237500160</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Alimento Para Cães Filhote Todo Tamanho Dog Chow 100g Frango</t>
+          <t>Ração Champ Adulto Carne &amp; Cereal 900g</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ab2545e-2e35-4790-a11a-d9aa6914675f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05136a27-ceec-46ea-aeb4-b92a64cf5709.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896029082348</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Raçao Para Caes Vittamax 1kg Gold</t>
+          <t>Ração Champ Filhotes 900g</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e738becc-6172-4b78-ad61-1b917dc7a490.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8315e6c3-b06d-495a-9cee-70c515866c0f.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896029082362</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Racao Pedigree 500g Biscrok Ad</t>
+          <t>Racao P/ Gatos Adultos Tkitekat Sache 70g Frango</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebb54c2b-87a0-4086-a864-5644f3cfcd29.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5357ee92-2c36-458b-8429-b8ca8cdddb6e.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896029007204</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Elimin. De Odores Sanol Dog 2l</t>
+          <t>Raçao P/ Gato Adultos Kitekat Sache 70g Carne</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1bc9f3f5-b446-4691-bb17-131567bfd4a4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0324044-e9a7-4c1e-af1b-74d2e2abf4a0.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896029018057</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Raçao Para Gatos Castrado Whiskas 900g Carne</t>
+          <t>Alimento Para Cães Ad Dog Chow 100g Cordeiro</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d429c782-de82-4d9f-9d76-dadd6ef5ab3f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdd59a56-60a4-475d-89f7-e3626c9b1b43.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7891000115671</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Raçao P/ Gatos Vittamax 1kg Carne</t>
+          <t>Alimento Para Cães Ad Pequeno Dog Chow 100g Frango</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4db4f8c-9f99-4541-98b5-7aabe3caa736.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e77c931b-3658-4625-bfe4-4cb2f6ac74a6.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7891000115657</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1842,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Alimento Para Caes Adulto Dog Chow 100g Frango</t>
+          <t>Alimento Para Cães Adulto Dog Chow 100g Carne</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1632,7 +1852,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a25d27dd-49ca-4d89-91d6-fef232b66906.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/febbe535-348f-41a2-b42c-7d5256334ada.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7891000115633</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Racao Pedigree 180g Dentastix R.med</t>
+          <t>Alimento Para Cães Pequeno Dog Chow 100g Carne</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cea722a4-99d9-405c-986a-f420e216285a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e762d6df-1834-481d-800f-b7b195054a49.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7891000244746</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Raçao Para Gatos Adulto Whiskas 900g Carne</t>
+          <t>Alim P/ Gato Friskies 85g Salmão Ao Molho</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 3,59</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f353ab0b-6526-41cb-9ed6-ced965132423.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5ea7e69-a51a-4c0a-a5bc-d9ea65b30bb5.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7891000118085</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Racao Pedigree 110g Dentastix R.peq</t>
+          <t>Ração Dog Chow 1kg Filhote Ar/car/fgo</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd5a9f80-1e39-4635-8916-38d9574a1477.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c451252-9061-4617-b30a-bbd98d237ca1.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7891000350881</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Alpiste P/pássaro Wally 500g</t>
+          <t>Ração Friskies 1kg Megamix Castrados</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02ac5f39-876e-4d0f-a8f5-bba4b615a606.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d8b40ac-4221-4b79-a7aa-1420f7b2df1f.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7891000069905</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Quirela De Milho Wally 500g</t>
+          <t>Ração Friskies 1kg Mix Carne</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 38,98</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9fb57cb-2f08-464c-a22c-a1fb25a3d7fb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3101a7a-7d9b-412e-8633-70f6c7160e96.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7891000069905</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Girassol Wally 500g</t>
+          <t>Racao Para Caes Adulto Viking 7kg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 44,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/024d135a-76e1-4cba-8c06-d77e31b648e3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fd8336c-234b-4b37-9f14-201c44343361.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7898958766412</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Racao Pedigree 280g Carne Pate</t>
+          <t>Alimento Para Cães Adulto Pedigree 2,7kg Raças Pequenas</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 69,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da89dec3-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fdd01edf-1b59-4f0a-9612-7d23e2b341a5.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896029082287</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bifinho Para Gatos Caats 30g Salmao</t>
+          <t>Alimento Para Cães Pedigree 900g Carne E Vegetais</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/512fc942-ceb4-488e-9f00-74a4f83fd1a3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86741c40-c0d4-4b0a-99fa-cc6279c8c2ba.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896029082416</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Raçao P/ Gatos Vittamax 1kg Peixe</t>
+          <t>Alimento Para Cães Filhotes Pedigree 2,7kg Carne</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 69,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/42db163b-8a65-4005-a3a8-97b5a068ba29.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01e79636-cbc3-4afa-97c1-b1dd78262315.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7896029083499</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Racao Whiskas 500g Carne</t>
+          <t>Raçao Para Gatos Adulto Whiskas 900g Carne</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f43b4bee-8b98-4416-87c4-13e61aa47a9a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f353ab0b-6526-41cb-9ed6-ced965132423.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896029092347</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Bifinho Para Gatos Caats 30g Carne</t>
+          <t>Raçao Para Gatos Adulto Whiskas 900g Peixe</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d969f79b-33aa-4092-be3b-827da82edf55.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f3e5b47-399b-40ec-ac1e-32e34e483a56.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896029092347</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ração Champ Adulto Carne &amp; Cereal 900g</t>
+          <t>Raçao Para Gatos Castrado Whiskas 900g Carne</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05136a27-ceec-46ea-aeb4-b92a64cf5709.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d429c782-de82-4d9f-9d76-dadd6ef5ab3f.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7896029092439</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Petisco Med Oral Dog Chow 80g Grande</t>
+          <t>Areia Higienica Sanit Edukat Alfapet 4kg</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 12,98</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/738f6428-b25c-4f47-94cc-2d5e4ac2e3c7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9445324-ac2f-43a6-8ed3-6b6059e70869.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7898905706263</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ração Dog Chow 1kg Adlt Car/ Fgo/ Arroz</t>
+          <t>Bifinho P/ Caes Doogs 65g Carne/leite</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3560c975-f102-4e49-9cfd-d50af3c5d3a3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eeff9e5e-07ac-4a48-9de8-4fd2afbe392c.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7899599602206</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Biscoito Para Cachorro Doogs 200g Carne</t>
+          <t>Bifinho P/ Caes Doogs 65g Carne/vegetais</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f5775f8-218a-4ec8-a366-3f034f966831.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7176471d-5316-438d-adc1-00941c94ac5f.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7899599602213</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Racao Whiskas 500g Peixe Delicrocs</t>
+          <t>Bifinho P/ Caes Doogs 65g Churrasco</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb6a4fb7-878b-425d-aae4-c2b5f352df64.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f50ed4b6-d192-4eff-9eda-72f8b1465a89.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7899599602268</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Areia Higienica Sanitaria Alfapet 4kg</t>
+          <t>Bifinho Para Gatos Caats 30g Carne</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03da0154-e2a6-4ea9-ab73-380d01a05141.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d969f79b-33aa-4092-be3b-827da82edf55.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7899599602244</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Raçao P/ Caes Vittamax 1kg Filhote</t>
+          <t>Ração Para Caes Doglly 1kg Junior</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/789d31e1-a005-434e-9af4-c231109650ac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ef68d89-0939-49e7-bd24-843254447bea.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7898958766146</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ração Qualidy Cat Filh Carne E Fgo 500g</t>
+          <t>Raçao P/ Caes Doglly 1kg Raças Pequenas</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 16,98</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/753f05a7-5f14-49ec-a997-7b3f6d82cdfc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1af605d-0932-4ac3-873c-fa448b0bf355.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7898958766115</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ração Friskies 1kg Mix Carne</t>
+          <t>Raçao Para Caes Vittamax 1kg Raças Pequenas</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 38,98</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3101a7a-7d9b-412e-8633-70f6c7160e96.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab40caf5-bd67-4124-944e-b7454af625aa.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7898224824273</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2514,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Alimento Para Cães Pedigree 900g Carne E Vegetais</t>
+          <t>Raçao P/ Gatos Vittamax 1kg Carne</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2199,7 +2524,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/86741c40-c0d4-4b0a-99fa-cc6279c8c2ba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4db4f8c-9f99-4541-98b5-7aabe3caa736.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7898224822019</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ração Qualidy Dog Ad Peq Porte 1kg</t>
+          <t>Bifinho Para Gatos Caats 30g Salmao</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16b76181-4d0f-400f-9b2f-9a50b88df4db.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/512fc942-ceb4-488e-9f00-74a4f83fd1a3.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7899599602251</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ração Qualidy Premium Cat Ad Carne 500g</t>
+          <t>Raçao P/ Caes Vittamax 1kg Filhote</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 16,98</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71f9d1be-3371-48ef-aafa-62e17dbe949c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/789d31e1-a005-434e-9af4-c231109650ac.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7898224823214</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ração Champ Filhotes 900g</t>
+          <t>Raçao P/ Gatos Vittamax 1kg Peixe</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8315e6c3-b06d-495a-9cee-70c515866c0f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/42db163b-8a65-4005-a3a8-97b5a068ba29.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7898224823221</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ração Dog Chow 1kg Filhote Ar/car/fgo</t>
+          <t>Alimento Para Caes Adulto Dog Chow 100g Frango</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c451252-9061-4617-b30a-bbd98d237ca1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a25d27dd-49ca-4d89-91d6-fef232b66906.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7891000115657</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Raçao Para Gatos Adulto Whiskas 900g Peixe</t>
+          <t>Alimento Para Cães Filhote Todo Tamanho Dog Chow 100g Frango</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f3e5b47-399b-40ec-ac1e-32e34e483a56.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ab2545e-2e35-4790-a11a-d9aa6914675f.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7891000115657</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Alimento Para Cães Dry Adulto Raças Pequenas Pedigree 900g</t>
+          <t>Raçao Para Caes Vittamax 1kg Gold</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd96d3b3-bece-4363-9628-51edecb7cca3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e738becc-6172-4b78-ad61-1b917dc7a490.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7898224828011</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ração Friskies 1kg Megamix Castrados</t>
+          <t>Raçao P/ Passaro Aguia Girassol 250g</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d8b40ac-4221-4b79-a7aa-1420f7b2df1f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5cd97ca1-443f-4125-8db2-bf4c96ce6227.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896194701617</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ração Para Caes Doglly 1kg Junior</t>
+          <t>Raçao P/caes Doglly Danes 10,1 Kg Carne</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 89,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ef68d89-0939-49e7-bd24-843254447bea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14d20083-fc82-435a-860f-313f1f8ee5f3.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7898958766078</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Raçao P/ Caes Doglly 1kg Raças Pequenas</t>
+          <t>Biscoito Para Cachorro Doogs 200g Carne</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1af605d-0932-4ac3-873c-fa448b0bf355.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f5775f8-218a-4ec8-a366-3f034f966831.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7899599608024</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Shampoo Sanol Antipulgas 500ml</t>
+          <t>Alimento Para Cães Dry Adulto Raças Pequenas Pedigree 900g</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 24,98</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e231c8bd-9c1d-420a-8cb5-9cf6664ed429.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd96d3b3-bece-4363-9628-51edecb7cca3.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7896029082447</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Alimento Para Cães Adulto Pedigree 2,7kg Raças Pequenas</t>
+          <t>Ração Magnus Supreme Cão Filhote Fgo/cereais 900g</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 69,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fdd01edf-1b59-4f0a-9612-7d23e2b341a5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b99d7b6f-c550-4b7a-94de-5e19add0b920.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7898363319135</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Racao Whiskas 290g Peixe</t>
+          <t>Areia Higienica Sanitaria Alfapet 4kg</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/264bc61e-2fb5-4903-a466-1f268f6494c3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03da0154-e2a6-4ea9-ab73-380d01a05141.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7898905706010</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Alimento Para Cães Adultos Pedigree 2,7kg Carne E Vegetal</t>
+          <t>Desinfetante Ultra Concentrado Procao 1l Citronela</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 69,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5562895e-2e02-478c-a336-dcc6f2b923ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4e263bf-381f-408d-b4c0-f7fe96da7e01.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7898645220821</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Raçao Para Caes Vittamax 1kg Raças Pequenas</t>
+          <t>Educador Sanitário Não Pode Procao 200ml</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab40caf5-bd67-4124-944e-b7454af625aa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d02a451f-477f-4019-bd7b-20ca00b35582.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7897520009278</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Raçao P/ Passaro Aguia Girassol 250g</t>
+          <t>Educador Sanitário Pode Procao 200ml</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5cd97ca1-443f-4125-8db2-bf4c96ce6227.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/573ee0c3-daf2-4ce0-8842-11c365868c4c.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7897520009292</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ração Magnus Supreme Cão Filhote Fgo/cereais 900g</t>
+          <t>Banho A Seco Procão 500ml</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 29,98</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b99d7b6f-c550-4b7a-94de-5e19add0b920.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7897520009377</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Alimentos Para Cães Filhotes Pedigree 900g Carne, Frango E Cereais</t>
+          <t>Shampoo Procao 500ml Clorexidina</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b56af10a-0625-4444-a584-ef846149b9de.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7897520016375</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Alimento Para Cães Filhotes Pedigree 2,7kg Carne</t>
+          <t>Ultra Aroma Panda Procao 120ml Eucalipto</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 69,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01e79636-cbc3-4afa-97c1-b1dd78262315.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7898645221484</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Raçao P/caes Doglly Danes 10,1 Kg Carne</t>
+          <t>Ultra Aroma Panda Procao 120ml Lavanda</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 89,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14d20083-fc82-435a-860f-313f1f8ee5f3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/597d73ee-0eee-4df0-b4b2-a74b32411cd0.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7898645221484</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Racao Whiskas 500g Gatos Castrados</t>
+          <t>Ultra Aroma Panda Procao 120ml Marine</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d47c00d5-2b17-4d66-90c1-23c5aad09910.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74334cb3-8556-4354-8f7a-abe1800ab2ba.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7898645221484</t>
         </is>
       </c>
     </row>
@@ -2756,287 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ração Qualidy Premium Dog Filhote 900gr</t>
+          <t>Alimento Para Cães Filho Dog Chow 100g Carne</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6d53295-c193-4465-b603-8c2798bfd367.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Pet shop</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Desinfetante Ultra Concentrado Procao 1l Citronela</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4e263bf-381f-408d-b4c0-f7fe96da7e01.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Pet shop</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Areia Higiênica Para Gatos Cat Zone 3kg Natural</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed8ae84a-1316-4aac-8c2a-5a918f8f0638.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Pet shop</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Educador Sanitário Não Pode Procao 200ml</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d02a451f-477f-4019-bd7b-20ca00b35582.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Pet shop</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Educador Sanitário Pode Procao 200ml</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/573ee0c3-daf2-4ce0-8842-11c365868c4c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Pet shop</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Kit Higiene Procao Shampoo 500ml+ Condicionador 200ml Grátis Escova</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b2a3698-db5f-4963-8618-df82182d4ec4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Pet shop</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Banho A Seco Procão 500ml</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>R$ 29,98</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Pet shop</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Shampoo Procao 500ml Clorexidina</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Pet shop</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Ultra Aroma Panda Procao 120ml Eucalipto</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Pet shop</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Ultra Aroma Panda Procao 120ml Lavanda</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>R$ 9,98</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/597d73ee-0eee-4df0-b4b2-a74b32411cd0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Pet shop</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Ultra Aroma Panda Procao 120ml Marine</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>R$ 9,98</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74334cb3-8556-4354-8f7a-abe1800ab2ba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4f4abf6-7179-42b0-a380-e417d8c2dc8d.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7891000244746</t>
         </is>
       </c>
     </row>
